--- a/app/src/main/assets/HORARIO ESTUDIANTE.xlsx
+++ b/app/src/main/assets/HORARIO ESTUDIANTE.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose3\AndroidStudioProjects\Proyecto_Plataformas_2.0\app\src\main\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\AndroidStudioProjects\ProyectoFinal_RegistroControl_JAAS\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70C27E-0E81-4001-8A59-EC8F6DB4BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C3AD63-2301-450A-AE5B-90C58069E930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5448" yWindow="3636" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,61 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">LUNES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTES </t>
-  </si>
-  <si>
-    <t>MIERCOLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUEVES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIERNES </t>
-  </si>
-  <si>
-    <t>HORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamento Matemático
-</t>
-  </si>
-  <si>
-    <t>Física I</t>
-  </si>
-  <si>
-    <t>Lógica Matemática</t>
-  </si>
-  <si>
-    <t>Introducción a la Ingeniería</t>
-  </si>
-  <si>
-    <t>Algoritmia</t>
-  </si>
-  <si>
-    <t>Técnicas de Lectura y Escritua</t>
-  </si>
-  <si>
-    <t>Vida Universitaria</t>
-  </si>
-  <si>
-    <t>1_3</t>
-  </si>
-  <si>
-    <t>11_1</t>
-  </si>
-  <si>
-    <t>9_11</t>
-  </si>
-  <si>
-    <t>7_9</t>
-  </si>
-  <si>
-    <t>3_5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Dia/Hora</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>08:00 - 09:00</t>
+  </si>
+  <si>
+    <t>09:00 - 10:0</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t>Materia 1</t>
+  </si>
+  <si>
+    <t>Materia 2</t>
+  </si>
+  <si>
+    <t>Materia 3</t>
+  </si>
+  <si>
+    <t>Materia 4</t>
+  </si>
+  <si>
+    <t>Materia 5</t>
+  </si>
+  <si>
+    <t>Materia 6</t>
   </si>
 </sst>
 </file>
@@ -95,29 +85,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -125,79 +107,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,193 +392,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34223B3-CB4D-4478-A4C6-361717023791}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>